--- a/www/IndicatorsPerCountry/Laos_CopperProduction_TerritorialRef_1953_2012_CCode_418.xlsx
+++ b/www/IndicatorsPerCountry/Laos_CopperProduction_TerritorialRef_1953_2012_CCode_418.xlsx
@@ -108,13 +108,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Laos_CopperProduction_TerritorialRef_1953_2012_CCode_418.xlsx
+++ b/www/IndicatorsPerCountry/Laos_CopperProduction_TerritorialRef_1953_2012_CCode_418.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="29">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,46 +39,31 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>1.7</t>
   </si>
   <si>
-    <t>2</t>
+    <t>30.5</t>
   </si>
   <si>
-    <t>3</t>
+    <t>60.808</t>
   </si>
   <si>
-    <t>4</t>
+    <t>62.541</t>
   </si>
   <si>
-    <t>5</t>
+    <t>89.04</t>
   </si>
   <si>
-    <t>6</t>
+    <t>121.58</t>
   </si>
   <si>
-    <t>8</t>
+    <t>132.047</t>
   </si>
   <si>
-    <t>10</t>
+    <t>139</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>6.7</t>
+    <t>149.58</t>
   </si>
   <si>
     <t>Description</t>
@@ -3647,7 +3632,7 @@
         <v>1933.0</v>
       </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
@@ -3698,7 +3683,7 @@
         <v>1936.0</v>
       </c>
       <c r="E208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -3715,7 +3700,7 @@
         <v>1937.0</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
@@ -3732,7 +3717,7 @@
         <v>1938.0</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
@@ -3749,7 +3734,7 @@
         <v>1939.0</v>
       </c>
       <c r="E211" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
@@ -3766,7 +3751,7 @@
         <v>1940.0</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
@@ -3783,7 +3768,7 @@
         <v>1941.0</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -3800,7 +3785,7 @@
         <v>1942.0</v>
       </c>
       <c r="E214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
@@ -3817,7 +3802,7 @@
         <v>1943.0</v>
       </c>
       <c r="E215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
@@ -3834,7 +3819,7 @@
         <v>1944.0</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -3851,7 +3836,7 @@
         <v>1945.0</v>
       </c>
       <c r="E217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -3902,7 +3887,7 @@
         <v>1948.0</v>
       </c>
       <c r="E220" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
@@ -3953,7 +3938,7 @@
         <v>1951.0</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
@@ -3970,7 +3955,7 @@
         <v>1952.0</v>
       </c>
       <c r="E224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
@@ -3987,7 +3972,7 @@
         <v>1953.0</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
@@ -4004,7 +3989,7 @@
         <v>1954.0</v>
       </c>
       <c r="E226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
@@ -4021,7 +4006,7 @@
         <v>1955.0</v>
       </c>
       <c r="E227" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
@@ -4038,7 +4023,7 @@
         <v>1956.0</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
@@ -4055,7 +4040,7 @@
         <v>1957.0</v>
       </c>
       <c r="E229" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
@@ -4072,7 +4057,7 @@
         <v>1958.0</v>
       </c>
       <c r="E230" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
@@ -4089,7 +4074,7 @@
         <v>1959.0</v>
       </c>
       <c r="E231" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232">
@@ -4106,7 +4091,7 @@
         <v>1960.0</v>
       </c>
       <c r="E232" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
@@ -4123,7 +4108,7 @@
         <v>1961.0</v>
       </c>
       <c r="E233" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -4140,7 +4125,7 @@
         <v>1962.0</v>
       </c>
       <c r="E234" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
@@ -4157,7 +4142,7 @@
         <v>1963.0</v>
       </c>
       <c r="E235" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -4174,7 +4159,7 @@
         <v>1964.0</v>
       </c>
       <c r="E236" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -4191,7 +4176,7 @@
         <v>1965.0</v>
       </c>
       <c r="E237" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
@@ -4208,7 +4193,7 @@
         <v>1966.0</v>
       </c>
       <c r="E238" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
@@ -4225,7 +4210,7 @@
         <v>1967.0</v>
       </c>
       <c r="E239" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -4242,7 +4227,7 @@
         <v>1968.0</v>
       </c>
       <c r="E240" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
@@ -4259,7 +4244,7 @@
         <v>1969.0</v>
       </c>
       <c r="E241" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
@@ -4276,7 +4261,7 @@
         <v>1970.0</v>
       </c>
       <c r="E242" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
@@ -4293,7 +4278,7 @@
         <v>1971.0</v>
       </c>
       <c r="E243" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
@@ -4310,7 +4295,7 @@
         <v>1972.0</v>
       </c>
       <c r="E244" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
@@ -4327,7 +4312,7 @@
         <v>1973.0</v>
       </c>
       <c r="E245" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
@@ -4344,7 +4329,7 @@
         <v>1974.0</v>
       </c>
       <c r="E246" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
@@ -4361,7 +4346,7 @@
         <v>1975.0</v>
       </c>
       <c r="E247" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
@@ -4378,7 +4363,7 @@
         <v>1976.0</v>
       </c>
       <c r="E248" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
@@ -4395,7 +4380,7 @@
         <v>1977.0</v>
       </c>
       <c r="E249" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
@@ -4412,7 +4397,7 @@
         <v>1978.0</v>
       </c>
       <c r="E250" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
@@ -4429,7 +4414,7 @@
         <v>1979.0</v>
       </c>
       <c r="E251" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -4446,7 +4431,7 @@
         <v>1980.0</v>
       </c>
       <c r="E252" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
@@ -4463,7 +4448,7 @@
         <v>1981.0</v>
       </c>
       <c r="E253" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
@@ -4480,7 +4465,7 @@
         <v>1982.0</v>
       </c>
       <c r="E254" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -4497,7 +4482,7 @@
         <v>1983.0</v>
       </c>
       <c r="E255" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -4514,7 +4499,7 @@
         <v>1984.0</v>
       </c>
       <c r="E256" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4531,7 +4516,7 @@
         <v>1985.0</v>
       </c>
       <c r="E257" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
@@ -4548,7 +4533,7 @@
         <v>1986.0</v>
       </c>
       <c r="E258" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -4565,7 +4550,7 @@
         <v>1987.0</v>
       </c>
       <c r="E259" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
@@ -4582,7 +4567,7 @@
         <v>1988.0</v>
       </c>
       <c r="E260" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
@@ -4599,7 +4584,7 @@
         <v>1989.0</v>
       </c>
       <c r="E261" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
@@ -4616,7 +4601,7 @@
         <v>1990.0</v>
       </c>
       <c r="E262" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
@@ -4633,7 +4618,7 @@
         <v>1991.0</v>
       </c>
       <c r="E263" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
@@ -4650,7 +4635,7 @@
         <v>1992.0</v>
       </c>
       <c r="E264" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
@@ -4667,7 +4652,7 @@
         <v>1993.0</v>
       </c>
       <c r="E265" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
@@ -4684,7 +4669,7 @@
         <v>1994.0</v>
       </c>
       <c r="E266" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267">
@@ -4701,7 +4686,7 @@
         <v>1995.0</v>
       </c>
       <c r="E267" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
@@ -4718,7 +4703,7 @@
         <v>1996.0</v>
       </c>
       <c r="E268" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
@@ -4735,7 +4720,7 @@
         <v>1997.0</v>
       </c>
       <c r="E269" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
@@ -4752,7 +4737,7 @@
         <v>1998.0</v>
       </c>
       <c r="E270" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
@@ -4769,7 +4754,7 @@
         <v>1999.0</v>
       </c>
       <c r="E271" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -4786,7 +4771,7 @@
         <v>2000.0</v>
       </c>
       <c r="E272" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
@@ -4803,7 +4788,7 @@
         <v>2001.0</v>
       </c>
       <c r="E273" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
@@ -4820,7 +4805,7 @@
         <v>2002.0</v>
       </c>
       <c r="E274" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
@@ -4837,7 +4822,7 @@
         <v>2003.0</v>
       </c>
       <c r="E275" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
@@ -4854,7 +4839,7 @@
         <v>2004.0</v>
       </c>
       <c r="E276" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
@@ -4871,7 +4856,7 @@
         <v>2005.0</v>
       </c>
       <c r="E277" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
@@ -4888,7 +4873,7 @@
         <v>2006.0</v>
       </c>
       <c r="E278" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
@@ -4905,7 +4890,7 @@
         <v>2007.0</v>
       </c>
       <c r="E279" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280">
@@ -4922,7 +4907,7 @@
         <v>2008.0</v>
       </c>
       <c r="E280" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281">
@@ -4939,7 +4924,7 @@
         <v>2009.0</v>
       </c>
       <c r="E281" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282">
@@ -4956,7 +4941,7 @@
         <v>2010.0</v>
       </c>
       <c r="E282" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -4973,7 +4958,7 @@
         <v>2011.0</v>
       </c>
       <c r="E283" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284">
@@ -4990,7 +4975,7 @@
         <v>2012.0</v>
       </c>
       <c r="E284" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5008,50 +4993,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
